--- a/data/trans_dic/P19D_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P19D_R-Habitat-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.1063998923697581</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.09425520234109462</v>
+        <v>0.09425520234109463</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.05173729787873504</v>
@@ -685,7 +685,7 @@
         <v>0.08827078356479175</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.05441753676890324</v>
+        <v>0.05441753676890325</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.05929342585348912</v>
@@ -697,7 +697,7 @@
         <v>0.09717114721565714</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.07371129251168777</v>
+        <v>0.07371129251168779</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.04814979079322453</v>
+        <v>0.04566202499750747</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1263875170354318</v>
+        <v>0.1259979324785484</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.08102769925250511</v>
+        <v>0.07990291516727176</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.07126596846240622</v>
+        <v>0.07375378183232405</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.03622388378429655</v>
+        <v>0.03485243413008577</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.09303071166785866</v>
+        <v>0.0967432997469571</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.06521732064870064</v>
+        <v>0.06715065070750177</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.04258210156338965</v>
+        <v>0.04204704796084993</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.04539132144373027</v>
+        <v>0.04529416121128486</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1188826831923926</v>
+        <v>0.1169780861779568</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.08070985363907807</v>
+        <v>0.07870645188270285</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.06117034933113927</v>
+        <v>0.06115394954359624</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.0978606627461524</v>
+        <v>0.09508101946091428</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1888829186383565</v>
+        <v>0.1884688384136645</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1354486092323927</v>
+        <v>0.1330542912684034</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1243049536626379</v>
+        <v>0.1237547241113314</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.07266155573203648</v>
+        <v>0.07135788408389278</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1456188798123299</v>
+        <v>0.1508036313523409</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1147063855060473</v>
+        <v>0.1150006693098609</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.06910628277441937</v>
+        <v>0.06960681077321332</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.07434867608447207</v>
+        <v>0.07467013422086546</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1575278277030682</v>
+        <v>0.1554343858617333</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1175121929483281</v>
+        <v>0.1159911122266095</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.09027862115034234</v>
+        <v>0.08953720158439478</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.08186561221957209</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.08389306534940247</v>
+        <v>0.08389306534940248</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.06596458955530153</v>
@@ -833,7 +833,7 @@
         <v>0.08374347770439446</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.07149100516455936</v>
+        <v>0.07149100516455933</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.04867869349810715</v>
+        <v>0.04959213158054219</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1232895531212928</v>
+        <v>0.1232946561088412</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.06422341324533011</v>
+        <v>0.06244022184655526</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.06643596104860823</v>
+        <v>0.06559781184780959</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.04807025811960659</v>
+        <v>0.04902532092693489</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.09970028819957497</v>
+        <v>0.1001022595989934</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.06492378343537811</v>
+        <v>0.06854244082297416</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.04759914663070752</v>
+        <v>0.04654755603903066</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.05281902663050161</v>
+        <v>0.05451913096983997</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.118448017469127</v>
+        <v>0.1170720299179316</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.06977406741976835</v>
+        <v>0.07046770988010236</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.06058483092052205</v>
+        <v>0.06126557435121997</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.08802845097728393</v>
+        <v>0.08638710372968519</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1713996920703218</v>
+        <v>0.1761708214241416</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1046954141275801</v>
+        <v>0.102413711130305</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1043480202182905</v>
+        <v>0.1047736018722787</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.08545630748317909</v>
+        <v>0.08480822478205283</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1449357827397243</v>
+        <v>0.1463044422191958</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.104125690952271</v>
+        <v>0.1096339688595365</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.07402800852769251</v>
+        <v>0.07290037484416197</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.08059731684229357</v>
+        <v>0.08061279113985412</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1531550162690281</v>
+        <v>0.150077803612593</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.0996697945212635</v>
+        <v>0.09834295693173387</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.08292648127632463</v>
+        <v>0.08439305326793373</v>
       </c>
     </row>
     <row r="10">
@@ -969,7 +969,7 @@
         <v>0.08040587780482734</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.06387254016827186</v>
+        <v>0.06387254016827185</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.06629487880775209</v>
+        <v>0.0622244383025489</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1187119339290849</v>
+        <v>0.1165139544978928</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.06496020605378248</v>
+        <v>0.06464836109431878</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.05853613096962528</v>
+        <v>0.05626313258046713</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.04831305900954416</v>
+        <v>0.04839217267049847</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.0784331234571496</v>
+        <v>0.07814544285865388</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.05489447350273343</v>
+        <v>0.05076946615115874</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.03664688295221089</v>
+        <v>0.03595736442093536</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.06146387203685463</v>
+        <v>0.06207053534743398</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1046261450738196</v>
+        <v>0.1034224938039812</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.06518582043301945</v>
+        <v>0.0648219286809332</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.05089441572467951</v>
+        <v>0.05099243101235827</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1172841761590635</v>
+        <v>0.115999144798791</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1768317423525214</v>
+        <v>0.1742883325168075</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1141075584610548</v>
+        <v>0.115889243112895</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1105398554650412</v>
+        <v>0.1089520572748343</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.08758457177181853</v>
+        <v>0.09005927544545544</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1249532885006727</v>
+        <v>0.1246512799595988</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1013854383855092</v>
+        <v>0.0970325805155537</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.0665252987176095</v>
+        <v>0.0652758082421423</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.0938744037426419</v>
+        <v>0.09223039091386954</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1419973265476946</v>
+        <v>0.1395504696361432</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.09829113890436761</v>
+        <v>0.09775205576861808</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.0797573612303709</v>
+        <v>0.07991456596633101</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.09761835384365289</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.08500079658089783</v>
+        <v>0.08500079658089782</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.07931651886964287</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.05120314082608427</v>
+        <v>0.05106677502351126</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.08325567512533263</v>
+        <v>0.08396418389086026</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.07814027761564375</v>
+        <v>0.07859079107962955</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.06800209359156223</v>
+        <v>0.067133130049323</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.06103055370858732</v>
+        <v>0.06146038298595992</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.07937945206656039</v>
+        <v>0.08122905645296492</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.08283951368145395</v>
+        <v>0.08136773015835135</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.05302726569573032</v>
+        <v>0.05391322848157049</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.06137314559007642</v>
+        <v>0.06195053102271095</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.08680735946751265</v>
+        <v>0.08795960011639636</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.08445088612921214</v>
+        <v>0.08614058517940533</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.06443552431247428</v>
+        <v>0.06339099812633696</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.0862680590078512</v>
+        <v>0.08684718604436931</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1262976371089288</v>
+        <v>0.1279736769802114</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1186804155321466</v>
+        <v>0.1195750503368165</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1064862121906349</v>
+        <v>0.1069696117991941</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.09948913893826408</v>
+        <v>0.1007681155010994</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1202866049844149</v>
+        <v>0.1203128563965238</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1236681163019934</v>
+        <v>0.1250549918608564</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.07974623903608971</v>
+        <v>0.08020450914323195</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.08833744071201173</v>
+        <v>0.08874892582703518</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1169275238698405</v>
+        <v>0.1164274817342114</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1170560299093448</v>
+        <v>0.1153708854340133</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.08764830270024426</v>
+        <v>0.0855632925538608</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.09242551107084278</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.08517689543812298</v>
+        <v>0.08517689543812297</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.06705302343728228</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.06212011698538113</v>
+        <v>0.06215307489897698</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1224048164998043</v>
+        <v>0.1227780857337424</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.08084100795740454</v>
+        <v>0.08100476969824062</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.07497753841882361</v>
+        <v>0.07528385090634038</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.05701489595778381</v>
+        <v>0.05828523405538037</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.09802637778800402</v>
+        <v>0.09882475242319412</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.07837693332024043</v>
+        <v>0.07862753789490379</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.05098521046769</v>
+        <v>0.05175778008272439</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.06227542859505823</v>
+        <v>0.06227469737204543</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1142036816159075</v>
+        <v>0.1136616961338078</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.08264752046429835</v>
+        <v>0.08287423002930101</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.06473826122025185</v>
+        <v>0.0658628525036581</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.08334249177166811</v>
+        <v>0.08474476885192228</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.148909875298396</v>
+        <v>0.1499770252856863</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1042326568399832</v>
+        <v>0.1039187505203479</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.09628113875794435</v>
+        <v>0.09763871018904573</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.07627377535421213</v>
+        <v>0.07726581949087856</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1212606276521584</v>
+        <v>0.1209648159383093</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1007018485901219</v>
+        <v>0.1002607077504595</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.06504460680474894</v>
+        <v>0.06560671309336552</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.0767611010805969</v>
+        <v>0.0769679161833073</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1307232764566861</v>
+        <v>0.1310605563686676</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.09912041149812739</v>
+        <v>0.09800713205229507</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.07747675101597562</v>
+        <v>0.07827982737484671</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>23008</v>
+        <v>21819</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>76350</v>
+        <v>76115</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>42539</v>
+        <v>41948</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>47217</v>
+        <v>48865</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>19492</v>
+        <v>18754</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>59049</v>
+        <v>61406</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>35502</v>
+        <v>36554</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>30041</v>
+        <v>29663</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>46115</v>
+        <v>46016</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>147275</v>
+        <v>144915</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>86308</v>
+        <v>84165</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>83683</v>
+        <v>83660</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>46761</v>
+        <v>45433</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>114103</v>
+        <v>113853</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>71110</v>
+        <v>69853</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>82358</v>
+        <v>81994</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>39099</v>
+        <v>38398</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>92429</v>
+        <v>95720</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>62442</v>
+        <v>62602</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>48753</v>
+        <v>49106</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>75534</v>
+        <v>75860</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>195150</v>
+        <v>192556</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>125662</v>
+        <v>124036</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>123504</v>
+        <v>122489</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>35152</v>
+        <v>35812</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>106611</v>
+        <v>106616</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>52429</v>
+        <v>50973</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>67507</v>
+        <v>66655</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>38659</v>
+        <v>39427</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>89824</v>
+        <v>90187</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>56248</v>
+        <v>59383</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>50034</v>
+        <v>48929</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>80621</v>
+        <v>83215</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>209140</v>
+        <v>206710</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>117410</v>
+        <v>118577</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>125245</v>
+        <v>126652</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>63568</v>
+        <v>62383</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>148213</v>
+        <v>152339</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>85468</v>
+        <v>83605</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>106030</v>
+        <v>106462</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>68726</v>
+        <v>68205</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>130579</v>
+        <v>131812</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>90212</v>
+        <v>94984</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>77815</v>
+        <v>76629</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>123020</v>
+        <v>123044</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>270421</v>
+        <v>264987</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>167716</v>
+        <v>165484</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>171431</v>
+        <v>174463</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>36137</v>
+        <v>33918</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>75388</v>
+        <v>73992</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>35683</v>
+        <v>35512</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>45261</v>
+        <v>43503</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>28244</v>
+        <v>28290</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>53290</v>
+        <v>53095</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>31755</v>
+        <v>29368</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>29349</v>
+        <v>28796</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>69436</v>
+        <v>70121</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>137529</v>
+        <v>135947</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>73515</v>
+        <v>73105</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>80111</v>
+        <v>80265</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>63930</v>
+        <v>63230</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>112296</v>
+        <v>110681</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>62681</v>
+        <v>63659</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>85471</v>
+        <v>84243</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>51203</v>
+        <v>52649</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>84898</v>
+        <v>84693</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>58648</v>
+        <v>56130</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>53277</v>
+        <v>52276</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>106050</v>
+        <v>104192</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>186653</v>
+        <v>183437</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>110851</v>
+        <v>110243</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>125543</v>
+        <v>125790</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>36458</v>
+        <v>36361</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>66909</v>
+        <v>67478</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>60302</v>
+        <v>60650</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>64138</v>
+        <v>63318</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>49679</v>
+        <v>50029</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>73694</v>
+        <v>75411</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>72637</v>
+        <v>71347</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>56790</v>
+        <v>57738</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>93657</v>
+        <v>94538</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>150353</v>
+        <v>152348</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>139222</v>
+        <v>142007</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>129781</v>
+        <v>127677</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>61425</v>
+        <v>61838</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>101500</v>
+        <v>102847</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>91587</v>
+        <v>92278</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>100435</v>
+        <v>100891</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>80984</v>
+        <v>82025</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>111670</v>
+        <v>111695</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>108437</v>
+        <v>109653</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>85404</v>
+        <v>85895</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>134805</v>
+        <v>135433</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>202522</v>
+        <v>201655</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>192973</v>
+        <v>190195</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>176535</v>
+        <v>172335</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>152634</v>
+        <v>152715</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>355894</v>
+        <v>356980</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>215228</v>
+        <v>215664</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>254552</v>
+        <v>255592</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>156274</v>
+        <v>159756</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>308144</v>
+        <v>310654</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>224632</v>
+        <v>225350</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>184996</v>
+        <v>187799</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>323709</v>
+        <v>323705</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>691047</v>
+        <v>687767</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>456909</v>
+        <v>458163</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>454688</v>
+        <v>462586</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>204780</v>
+        <v>208225</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>432958</v>
+        <v>436061</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>277505</v>
+        <v>276670</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>326879</v>
+        <v>331488</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>209062</v>
+        <v>211781</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>381180</v>
+        <v>380251</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>288616</v>
+        <v>287352</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>236010</v>
+        <v>238049</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>399006</v>
+        <v>400081</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>791007</v>
+        <v>793048</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>547978</v>
+        <v>541824</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>544156</v>
+        <v>549797</v>
       </c>
     </row>
     <row r="24">
